--- a/Data/SimpLegal-Pref.xlsx
+++ b/Data/SimpLegal-Pref.xlsx
@@ -28,13 +28,13 @@
     <t xml:space="preserve">Original</t>
   </si>
   <si>
-    <t xml:space="preserve">SimplifiedG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SimplifiedG2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SimplifiedG3</t>
+    <t xml:space="preserve">Professional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skilled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic</t>
   </si>
   <si>
     <t xml:space="preserve">8.1. Notices. Except as otherwise provided herein or in a Collateral Agreement, all notices and other communications hereunder and under the Collateral Agreements shall be in writing and shall be deemed to have been duly given upon receipt if (i) mailed by certified or registered mail, return receipt requested, (ii) sent by a nationally recognized overnight delivery service (receipt requested), fee prepaid, (iii) sent via facsimile with receipt confirmed, or (iv) delivered personally, addressed as follows or to such other address or addresses of which the respective party shall have notified the other.</t>
@@ -2968,7 +2968,7 @@
   <dimension ref="A1:E202"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B211" activeCellId="0" sqref="B211"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
